--- a/DB/Tablas de aprendizaje de movimientos/Stantler y Stantler (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Stantler y Stantler (S).xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stantler" sheetId="1" r:id="rId1"/>
     <sheet name="Stantler (S)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stantler!$A$2:$A$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stantler (S)'!$A$2:$A$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stantler!$A$2:$A$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Stantler (S)'!$A$2:$A$38</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">Stantler!#REF!</definedName>
     <definedName name="_xlnm.Extract" localSheetId="1">'Stantler (S)'!#REF!</definedName>
   </definedNames>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="41">
   <si>
     <t>Movimiento</t>
   </si>
@@ -141,18 +141,6 @@
     <t>Terratemblor</t>
   </si>
   <si>
-    <t>Tajo aéreo</t>
-  </si>
-  <si>
-    <t>Hidropulso</t>
-  </si>
-  <si>
-    <t>Rayo hielo</t>
-  </si>
-  <si>
-    <t>Danza dragón</t>
-  </si>
-  <si>
     <t>Aromaterapia</t>
   </si>
   <si>
@@ -160,6 +148,12 @@
   </si>
   <si>
     <t>Velo sagrado</t>
+  </si>
+  <si>
+    <t>Cuerno certero</t>
+  </si>
+  <si>
+    <t>Golpe cabeza</t>
   </si>
 </sst>
 </file>
@@ -504,19 +498,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -532,7 +526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -540,7 +534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -548,7 +542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -556,7 +550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -564,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -572,7 +566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -580,7 +574,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -588,7 +582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -596,79 +590,95 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -676,7 +686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -684,7 +694,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -692,7 +702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -700,7 +710,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -708,7 +718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -716,35 +726,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -755,19 +741,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -783,7 +769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -791,7 +777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -799,7 +785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -807,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -815,7 +801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -823,7 +809,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -831,7 +817,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -839,7 +825,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -847,135 +833,151 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B11" s="3">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B18" s="3">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B19" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B20" s="3">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B21" s="3">
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -983,7 +985,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -991,7 +993,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -1007,7 +1009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -1015,7 +1017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1023,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -1031,7 +1033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -1039,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1047,43 +1049,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
         <v>28</v>
       </c>
     </row>

--- a/DB/Tablas de aprendizaje de movimientos/Stantler y Stantler (S).xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Stantler y Stantler (S).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alfax\Documents\Monsters Feudal Seishin\Guión y bases de datos\Bases para el sistema de combate\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
